--- a/static/babak.xlsx
+++ b/static/babak.xlsx
@@ -1,41 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCurrentSelfStudy\DJANGO\PyAgrum\training\copilot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="all" sheetId="1" r:id="rId1"/>
-    <sheet name="utilities" sheetId="2" r:id="rId2"/>
-    <sheet name="Probability" sheetId="3" r:id="rId3"/>
-    <sheet name="Smoking" sheetId="4" r:id="rId4"/>
-    <sheet name="Hypertension" sheetId="5" r:id="rId5"/>
-    <sheet name="Diabetes" sheetId="6" r:id="rId6"/>
-    <sheet name="ChestPainCharacter" sheetId="7" r:id="rId7"/>
-    <sheet name="Radiation" sheetId="8" r:id="rId8"/>
-    <sheet name="Dyspnea" sheetId="9" r:id="rId9"/>
-    <sheet name="Diaphoresis" sheetId="10" r:id="rId10"/>
-    <sheet name="Fever" sheetId="11" r:id="rId11"/>
-    <sheet name="Hypotension" sheetId="12" r:id="rId12"/>
-    <sheet name="Tachycardia" sheetId="13" r:id="rId13"/>
-    <sheet name="STElevation" sheetId="14" r:id="rId14"/>
-    <sheet name="STDepression_TInversion" sheetId="15" r:id="rId15"/>
-    <sheet name="PRDepression_DiffuseSTElevation" sheetId="16" r:id="rId16"/>
-    <sheet name="Troponin" sheetId="17" r:id="rId17"/>
-    <sheet name="BNP" sheetId="18" r:id="rId18"/>
-    <sheet name="D_dimer" sheetId="19" r:id="rId19"/>
-    <sheet name="CRP" sheetId="20" r:id="rId20"/>
-    <sheet name="CXR_Edema" sheetId="21" r:id="rId21"/>
-    <sheet name="Echo_WallMotion" sheetId="22" r:id="rId22"/>
+    <sheet r:id="rId1" sheetId="1" name="all"/>
+    <sheet r:id="rId2" sheetId="2" name="utilities"/>
+    <sheet r:id="rId3" sheetId="3" name="Probability"/>
+    <sheet r:id="rId4" sheetId="4" name="Smoking"/>
+    <sheet r:id="rId5" sheetId="5" name="Hypertension"/>
+    <sheet r:id="rId6" sheetId="6" name="Diabetes"/>
+    <sheet r:id="rId7" sheetId="7" name="ChestPainCharacter"/>
+    <sheet r:id="rId8" sheetId="8" name="Radiation"/>
+    <sheet r:id="rId9" sheetId="9" name="Dyspnea"/>
+    <sheet r:id="rId10" sheetId="10" name="Diaphoresis"/>
+    <sheet r:id="rId11" sheetId="11" name="Fever"/>
+    <sheet r:id="rId12" sheetId="12" name="Hypotension"/>
+    <sheet r:id="rId13" sheetId="13" name="Tachycardia"/>
+    <sheet r:id="rId14" sheetId="14" name="STElevation"/>
+    <sheet r:id="rId15" sheetId="15" name="STDepression_TInversion"/>
+    <sheet r:id="rId16" sheetId="16" name="PRDepression_DiffuseSTElevation"/>
+    <sheet r:id="rId17" sheetId="17" name="Troponin"/>
+    <sheet r:id="rId18" sheetId="18" name="BNP"/>
+    <sheet r:id="rId19" sheetId="19" name="D_dimer"/>
+    <sheet r:id="rId20" sheetId="20" name="CRP"/>
+    <sheet r:id="rId21" sheetId="21" name="CXR_Edema"/>
+    <sheet r:id="rId22" sheetId="22" name="Echo_WallMotion"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -210,20 +205,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -265,43 +255,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -312,10 +297,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -353,71 +338,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,7 +430,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -468,11 +453,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -481,13 +466,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -497,7 +482,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -506,7 +491,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -515,7 +500,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -523,10 +508,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -597,57 +582,56 @@
   </sheetPr>
   <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="34.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="34.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="25.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="36.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="34.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="33.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="4" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="4" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="4" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="4" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="4" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="4" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="4" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="4" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="4" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="4" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="4" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="4" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="4" width="27.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="4" width="34.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="4" width="34.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="4" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="4" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="4" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="4" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="4" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="4" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="4" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="4" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="4" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="4" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="4" width="36.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="4" width="34.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,789 +762,789 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.18</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.45</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="2">
+        <v>0.55</v>
+      </c>
+      <c r="E2" s="2">
         <v>0.5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>0.5</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>0.25</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>0.75</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>0.75</v>
       </c>
-      <c r="J2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="J2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="L2" s="2">
         <v>0.5</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>0.5</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <v>0.4</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <v>0.6</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="2">
         <v>0.6</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="2">
         <v>0.4</v>
       </c>
-      <c r="R2" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="S2" s="3">
+      <c r="R2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="S2" s="2">
         <v>0.95</v>
       </c>
-      <c r="T2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="U2" s="3">
+      <c r="T2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="U2" s="2">
         <v>0.8</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="2">
         <v>0.45</v>
       </c>
-      <c r="W2" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="X2" s="3">
+      <c r="W2" s="2">
+        <v>0.55</v>
+      </c>
+      <c r="X2" s="2">
         <v>0.85</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="2">
         <v>0.15</v>
       </c>
-      <c r="Z2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AA2" s="3">
+      <c r="Z2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AA2" s="2">
         <v>0.8</v>
       </c>
-      <c r="AB2" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AC2" s="3">
+      <c r="AB2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AC2" s="2">
         <v>0.95</v>
       </c>
-      <c r="AD2" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AE2" s="3">
+      <c r="AD2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AE2" s="2">
         <v>0.15</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AF2" s="2">
         <v>0.8</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AG2" s="2">
         <v>0.65</v>
       </c>
-      <c r="AH2" s="3">
+      <c r="AH2" s="2">
         <v>0.35</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AI2" s="2">
         <v>0.75</v>
       </c>
-      <c r="AJ2" s="3">
+      <c r="AJ2" s="2">
         <v>0.25</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AK2" s="2">
         <v>0.7</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AL2" s="2">
         <v>0.3</v>
       </c>
-      <c r="AM2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AN2" s="3">
+      <c r="AM2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AN2" s="2">
         <v>0.8</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AO2" s="2">
         <v>0.1</v>
       </c>
-      <c r="AP2" s="3">
+      <c r="AP2" s="2">
         <v>0.75</v>
       </c>
-      <c r="AQ2" s="3">
+      <c r="AQ2" s="2">
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.22</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>0.35</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0.65</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>0.6</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0.4</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>0.3</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>0.7</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>0.6</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>0.3</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>0.1</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>0.35</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>0.65</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>0.45</v>
       </c>
-      <c r="O3" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="P3" s="3">
+      <c r="O3" s="2">
+        <v>0.55</v>
+      </c>
+      <c r="P3" s="2">
         <v>0.4</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <v>0.6</v>
       </c>
-      <c r="R3" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="S3" s="3">
+      <c r="R3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="S3" s="2">
         <v>0.95</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2">
         <v>0.1</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="2">
         <v>0.9</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="2">
         <v>0.4</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="2">
         <v>0.6</v>
       </c>
-      <c r="X3" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="Y3" s="3">
+      <c r="X3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Y3" s="2">
         <v>0.95</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="2">
         <v>0.65</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="2">
         <v>0.35</v>
       </c>
-      <c r="AB3" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AC3" s="3">
+      <c r="AB3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AC3" s="2">
         <v>0.95</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AD3" s="2">
         <v>0.1</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AE3" s="2">
         <v>0.5</v>
       </c>
-      <c r="AF3" s="3">
+      <c r="AF3" s="2">
         <v>0.4</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AG3" s="2">
         <v>0.6</v>
       </c>
-      <c r="AH3" s="3">
+      <c r="AH3" s="2">
         <v>0.4</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AI3" s="2">
         <v>0.8</v>
       </c>
-      <c r="AJ3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AK3" s="3">
+      <c r="AJ3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AK3" s="2">
         <v>0.7</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AL3" s="2">
         <v>0.3</v>
       </c>
-      <c r="AM3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AN3" s="3">
+      <c r="AM3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AN3" s="2">
         <v>0.8</v>
       </c>
-      <c r="AO3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AP3" s="3">
+      <c r="AO3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AP3" s="2">
         <v>0.6</v>
       </c>
-      <c r="AQ3" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ3" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.15</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>0.7</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>0.5</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0.5</v>
       </c>
-      <c r="G4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="2">
         <v>0.8</v>
       </c>
-      <c r="I4" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="I4" s="2">
+        <v>0.55</v>
+      </c>
+      <c r="J4" s="2">
         <v>0.35</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>0.1</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>0.3</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>0.7</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>0.25</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <v>0.75</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>0.25</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <v>0.75</v>
       </c>
-      <c r="R4" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="S4" s="3">
+      <c r="R4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="S4" s="2">
         <v>0.95</v>
       </c>
-      <c r="T4" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="U4" s="3">
+      <c r="T4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="U4" s="2">
         <v>0.95</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="2">
         <v>0.25</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="2">
         <v>0.75</v>
       </c>
-      <c r="X4" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="Y4" s="3">
+      <c r="X4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Y4" s="2">
         <v>0.95</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="2">
         <v>0.5</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="2">
         <v>0.5</v>
       </c>
-      <c r="AB4" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AC4" s="3">
+      <c r="AB4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AC4" s="2">
         <v>0.95</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="2">
         <v>0.85</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE4" s="2">
         <v>0.1</v>
       </c>
-      <c r="AF4" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AG4" s="3">
+      <c r="AF4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AG4" s="2">
         <v>0.85</v>
       </c>
-      <c r="AH4" s="3">
+      <c r="AH4" s="2">
         <v>0.15</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AI4" s="2">
         <v>0.9</v>
       </c>
-      <c r="AJ4" s="3">
+      <c r="AJ4" s="2">
         <v>0.1</v>
       </c>
-      <c r="AK4" s="3">
+      <c r="AK4" s="2">
         <v>0.8</v>
       </c>
-      <c r="AL4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AM4" s="3">
+      <c r="AL4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AM4" s="2">
         <v>0.1</v>
       </c>
-      <c r="AN4" s="3">
+      <c r="AN4" s="2">
         <v>0.9</v>
       </c>
-      <c r="AO4" s="3">
+      <c r="AO4" s="2">
         <v>0.8</v>
       </c>
-      <c r="AP4" s="3">
+      <c r="AP4" s="2">
         <v>0.15</v>
       </c>
-      <c r="AQ4" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ4" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="2">
         <v>0.25</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>0.75</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>0.7</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0.3</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>0.3</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>0.7</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>0.1</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>0.7</v>
       </c>
-      <c r="K5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="K5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="2">
         <v>0.1</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>0.9</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>0.85</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <v>0.15</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <v>0.35</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="2">
         <v>0.65</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="2">
         <v>0.1</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="2">
         <v>0.9</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="2">
         <v>0.25</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="2">
         <v>0.75</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="2">
         <v>0.6</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="2">
         <v>0.4</v>
       </c>
-      <c r="X5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="Y5" s="3">
+      <c r="X5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Y5" s="2">
         <v>0.95</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z5" s="2">
         <v>0.25</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AA5" s="2">
         <v>0.75</v>
       </c>
-      <c r="AB5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AC5" s="3">
+      <c r="AB5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AC5" s="2">
         <v>0.95</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AD5" s="2">
         <v>0.75</v>
       </c>
-      <c r="AE5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AG5" s="3">
+      <c r="AE5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AG5" s="2">
         <v>0.15</v>
       </c>
-      <c r="AH5" s="3">
+      <c r="AH5" s="2">
         <v>0.85</v>
       </c>
-      <c r="AI5" s="3">
+      <c r="AI5" s="2">
         <v>0.7</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="AJ5" s="2">
         <v>0.3</v>
       </c>
-      <c r="AK5" s="3">
+      <c r="AK5" s="2">
         <v>0.75</v>
       </c>
-      <c r="AL5" s="3">
+      <c r="AL5" s="2">
         <v>0.25</v>
       </c>
-      <c r="AM5" s="3">
+      <c r="AM5" s="2">
         <v>0.8</v>
       </c>
-      <c r="AN5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AO5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AP5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AQ5" s="3">
+      <c r="AN5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AQ5" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.15</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>0.85</v>
       </c>
-      <c r="E6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="2">
         <v>0.8</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0.1</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>0.9</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>0.1</v>
       </c>
-      <c r="J6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="J6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="2">
         <v>0.7</v>
       </c>
-      <c r="L6" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="L6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="M6" s="2">
         <v>0.95</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>0.35</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <v>0.65</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <v>0.1</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="2">
         <v>0.9</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="2">
         <v>0.3</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="2">
         <v>0.7</v>
       </c>
-      <c r="T6" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="U6" s="3">
+      <c r="T6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="U6" s="2">
         <v>0.95</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="2">
         <v>0.33</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="2">
         <v>0.35</v>
       </c>
-      <c r="X6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="Y6" s="3">
+      <c r="X6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Y6" s="2">
         <v>0.8</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="2">
         <v>0.15</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="2">
         <v>0.85</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="2">
         <v>0.7</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AC6" s="2">
         <v>0.3</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AE6" s="2">
         <v>0.15</v>
       </c>
-      <c r="AF6" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AG6" s="3">
+      <c r="AF6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AG6" s="2">
         <v>0.8</v>
       </c>
-      <c r="AH6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AI6" s="3">
+      <c r="AH6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AI6" s="2">
         <v>0.8</v>
       </c>
-      <c r="AJ6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AK6" s="3">
+      <c r="AJ6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AK6" s="2">
         <v>0.4</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AL6" s="2">
         <v>0.6</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AM6" s="2">
         <v>0.1</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AN6" s="2">
         <v>0.9</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AO6" s="2">
         <v>0.8</v>
       </c>
-      <c r="AP6" s="3">
+      <c r="AP6" s="2">
         <v>0.15</v>
       </c>
-      <c r="AQ6" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ6" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.15</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.25</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.75</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>0.35</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0.65</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>0.15</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>0.85</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>0.15</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>0.35</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>0.5</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>0.1</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>0.9</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="2">
         <v>0.8</v>
       </c>
-      <c r="O7" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="P7" s="3">
+      <c r="O7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P7" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="2">
         <v>0.7</v>
       </c>
-      <c r="R7" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="S7" s="3">
+      <c r="R7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S7" s="2">
         <v>0.8</v>
       </c>
-      <c r="T7" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="U7" s="3">
+      <c r="T7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="U7" s="2">
         <v>0.3</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="2">
         <v>0.7</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="2">
         <v>0.3</v>
       </c>
-      <c r="X7" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="Y7" s="3">
+      <c r="X7" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Y7" s="2">
         <v>0.95</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="2">
         <v>0.35</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7" s="2">
         <v>0.65</v>
       </c>
-      <c r="AB7" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AC7" s="3">
+      <c r="AB7" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AC7" s="2">
         <v>0.95</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7" s="2">
         <v>0.7</v>
       </c>
-      <c r="AE7" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AF7" s="3">
+      <c r="AE7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AF7" s="2">
         <v>0.1</v>
       </c>
-      <c r="AG7" s="3">
+      <c r="AG7" s="2">
         <v>0.6</v>
       </c>
-      <c r="AH7" s="3">
+      <c r="AH7" s="2">
         <v>0.4</v>
       </c>
-      <c r="AI7" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AJ7" s="3">
+      <c r="AI7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AJ7" s="2">
         <v>0.8</v>
       </c>
-      <c r="AK7" s="3">
+      <c r="AK7" s="2">
         <v>0.6</v>
       </c>
-      <c r="AL7" s="3">
+      <c r="AL7" s="2">
         <v>0.4</v>
       </c>
-      <c r="AM7" s="3">
+      <c r="AM7" s="2">
         <v>0.3</v>
       </c>
-      <c r="AN7" s="3">
+      <c r="AN7" s="2">
         <v>0.7</v>
       </c>
-      <c r="AO7" s="3">
+      <c r="AO7" s="2">
         <v>0.6</v>
       </c>
-      <c r="AP7" s="3">
+      <c r="AP7" s="2">
         <v>0.3</v>
       </c>
-      <c r="AQ7" s="3">
+      <c r="AQ7" s="2">
         <v>0.1</v>
       </c>
     </row>
@@ -1578,14 +1562,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="17.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1596,69 +1580,69 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.25</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.35</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.7</v>
       </c>
     </row>
@@ -1676,14 +1660,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1694,69 +1678,69 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="2">
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.8</v>
       </c>
     </row>
@@ -1774,14 +1758,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="17.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1792,69 +1776,69 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.25</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.3</v>
       </c>
     </row>
@@ -1872,14 +1856,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="17.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1890,69 +1874,69 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.45</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="2">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.25</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.6</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.33</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.3</v>
       </c>
     </row>
@@ -1970,14 +1954,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="17.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1988,69 +1972,69 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.85</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="2">
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="2">
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.95</v>
       </c>
     </row>
@@ -2068,13 +2052,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="35.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="35.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2085,69 +2070,69 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.65</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.25</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.15</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.35</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.65</v>
       </c>
     </row>
@@ -2165,14 +2150,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="44.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="35.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2183,69 +2168,69 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="2">
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="2">
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.95</v>
       </c>
     </row>
@@ -2263,15 +2248,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="26.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2285,87 +2270,87 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.15</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.85</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.1</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.75</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.8</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.15</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.7</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.1</v>
       </c>
     </row>
@@ -2383,14 +2368,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="26.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="26.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2401,69 +2386,69 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.65</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.6</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.85</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.15</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.85</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.8</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.4</v>
       </c>
     </row>
@@ -2481,14 +2466,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="22.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2499,69 +2484,69 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.75</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.8</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.9</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.7</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.8</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.8</v>
       </c>
     </row>
@@ -2579,152 +2564,153 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="18.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>95</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>85</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>40</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>0</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>0</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>80</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>55</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>40</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>60</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>60</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>45</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>30</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>70</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>50</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>35</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>20</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>75</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>40</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>30</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>60</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>45</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>40</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>50</v>
       </c>
     </row>
@@ -2742,14 +2728,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="14.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2760,69 +2746,69 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.7</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.8</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.75</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.4</v>
       </c>
     </row>
@@ -2840,13 +2826,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="17.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2857,69 +2844,69 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.8</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.7</v>
       </c>
     </row>
@@ -2937,15 +2924,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="24.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="35.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="33.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2959,87 +2946,87 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.75</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="2">
         <v>0.6</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.15</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.8</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.15</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.1</v>
       </c>
     </row>
@@ -3057,13 +3044,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3071,51 +3058,51 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.15</v>
       </c>
     </row>
@@ -3133,14 +3120,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3151,69 +3138,69 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.45</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="2">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>0.35</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.25</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.15</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.25</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -3231,14 +3218,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="18.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3249,69 +3236,69 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.6</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.7</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.35</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.65</v>
       </c>
     </row>
@@ -3329,14 +3316,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="14.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3347,69 +3334,69 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.25</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.15</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.85</v>
       </c>
     </row>
@@ -3427,15 +3414,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="26.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3449,87 +3436,87 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.75</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.6</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2">
+        <v>0.55</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.35</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.7</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.1</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.15</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.35</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.5</v>
       </c>
     </row>
@@ -3547,14 +3534,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="18.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3565,69 +3552,69 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.35</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.9</v>
       </c>
     </row>
@@ -3645,14 +3632,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="14.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3663,69 +3650,69 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.4</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.45</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.25</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.85</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.35</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.8</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.2</v>
       </c>
     </row>
